--- a/assets/PENEMPATAN PER NOVEMBER 2019.xlsx
+++ b/assets/PENEMPATAN PER NOVEMBER 2019.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajad-blk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\situpes\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="PENEMPATAN" sheetId="2" r:id="rId1"/>
     <sheet name="BLK" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="215">
   <si>
     <t>Rekapitulasi Hasil Test Seleksi Alih Daya BLK Kab. Kudus</t>
   </si>
@@ -664,6 +664,12 @@
   </si>
   <si>
     <t>LINDA VELA RIZQI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIP </t>
+  </si>
+  <si>
+    <t>NIP</t>
   </si>
 </sst>
 </file>
@@ -849,7 +855,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1012,6 +1018,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,25 +1328,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="99" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="99" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="28" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="52.5" style="28" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="31.5" style="28" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="28" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="28" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="28" customWidth="1"/>
     <col min="8" max="8" width="18" style="28" customWidth="1"/>
-    <col min="9" max="9" width="27.83203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.1640625" style="28"/>
+    <col min="9" max="9" width="27.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>176</v>
       </c>
@@ -1347,7 +1354,7 @@
       <c r="C1" s="54"/>
       <c r="D1" s="54"/>
     </row>
-    <row r="2" spans="1:4" s="24" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="24" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>175</v>
       </c>
@@ -1355,36 +1362,36 @@
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
     </row>
-    <row r="3" spans="1:4" s="24" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="24" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
     </row>
-    <row r="4" spans="1:4" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>177</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" s="26" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>183</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>106</v>
       </c>
@@ -1398,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <v>1</v>
       </c>
@@ -1412,7 +1419,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <f>A9+1</f>
         <v>2</v>
@@ -1425,7 +1432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <f>A10+1</f>
         <v>3</v>
@@ -1440,7 +1447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <f t="shared" ref="A12:A90" si="0">A11+1</f>
         <v>4</v>
@@ -1455,7 +1462,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1470,7 +1477,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1485,7 +1492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1500,7 +1507,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1515,7 +1522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1530,7 +1537,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1545,7 +1552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1560,7 +1567,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1575,7 +1582,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1590,7 +1597,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1605,7 +1612,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1620,7 +1627,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1635,7 +1642,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1650,7 +1657,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1665,7 +1672,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1680,56 +1687,56 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="23"/>
       <c r="C28" s="19"/>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="23"/>
       <c r="C29" s="19"/>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="23"/>
       <c r="C30" s="19"/>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="23"/>
       <c r="C31" s="19"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="23"/>
       <c r="C32" s="19"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="23"/>
       <c r="C33" s="19"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>184</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="41"/>
       <c r="D35" s="41"/>
     </row>
-    <row r="36" spans="1:4" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
         <v>106</v>
       </c>
@@ -1742,8 +1749,11 @@
       <c r="D36" s="33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36">
         <v>20</v>
       </c>
@@ -1757,7 +1767,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36">
         <f>A37+1</f>
         <v>21</v>
@@ -1772,7 +1782,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <f>A38+1</f>
         <v>22</v>
@@ -1787,7 +1797,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <f t="shared" ref="A40:A55" si="1">A39+1</f>
         <v>23</v>
@@ -1802,7 +1812,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36">
         <f>A40+1</f>
         <v>24</v>
@@ -1817,7 +1827,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1832,7 +1842,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1847,7 +1857,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1862,7 +1872,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1877,7 +1887,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1892,7 +1902,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1907,7 +1917,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1922,7 +1932,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -1937,7 +1947,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1952,7 +1962,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1967,7 +1977,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1982,7 +1992,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="36">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -1997,7 +2007,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="36">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -2012,7 +2022,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="36">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2027,21 +2037,21 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="34" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
         <v>194</v>
       </c>
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="40"/>
       <c r="C58" s="41"/>
       <c r="D58" s="41"/>
       <c r="F58" s="30"/>
     </row>
-    <row r="59" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" s="34" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
         <v>106</v>
       </c>
@@ -2055,7 +2065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="36">
         <v>39</v>
       </c>
@@ -2069,7 +2079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="36">
         <f>A60+1</f>
         <v>40</v>
@@ -2084,7 +2094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36">
         <f t="shared" ref="A62:A67" si="2">A61+1</f>
         <v>41</v>
@@ -2099,7 +2109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="36">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -2114,7 +2124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="36">
         <f t="shared" si="2"/>
         <v>43</v>
@@ -2129,7 +2139,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="36">
         <f t="shared" si="2"/>
         <v>44</v>
@@ -2144,7 +2154,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="36">
         <f t="shared" si="2"/>
         <v>45</v>
@@ -2159,7 +2169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="36">
         <f t="shared" si="2"/>
         <v>46</v>
@@ -2174,32 +2184,32 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="37"/>
       <c r="B68" s="23"/>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
     </row>
-    <row r="69" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="37"/>
       <c r="B69" s="23"/>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
     </row>
-    <row r="70" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
     </row>
-    <row r="71" spans="1:4" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="34" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
         <v>195</v>
       </c>
       <c r="C71" s="48"/>
       <c r="D71" s="48"/>
     </row>
-    <row r="72" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
         <v>106</v>
       </c>
@@ -2213,7 +2223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="36">
         <v>47</v>
       </c>
@@ -2227,18 +2237,18 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" s="19" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37"/>
       <c r="B74" s="23"/>
     </row>
-    <row r="75" spans="1:4" s="22" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="52" t="s">
         <v>196</v>
       </c>
       <c r="B75" s="50"/>
       <c r="D75" s="49"/>
     </row>
-    <row r="76" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
         <v>106</v>
       </c>
@@ -2252,7 +2262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="36">
         <v>48</v>
       </c>
@@ -2266,7 +2276,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="36">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2281,7 +2291,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="36">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2296,7 +2306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="36">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2311,7 +2321,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="36">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2326,7 +2336,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="36">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2341,7 +2351,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="36">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2356,20 +2366,20 @@
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="19" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" s="19" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="42"/>
       <c r="B84" s="21"/>
       <c r="C84" s="20"/>
       <c r="D84" s="20"/>
     </row>
-    <row r="85" spans="1:4" s="22" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
         <v>201</v>
       </c>
       <c r="B85" s="50"/>
       <c r="D85" s="49"/>
     </row>
-    <row r="86" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
         <v>106</v>
       </c>
@@ -2383,7 +2393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="36">
         <f>A83+1</f>
         <v>55</v>
@@ -2398,7 +2408,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="36">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2413,7 +2423,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="36">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2428,7 +2438,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="36">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2443,20 +2453,20 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="42"/>
       <c r="B91" s="21"/>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
     </row>
-    <row r="92" spans="1:4" s="22" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="52" t="s">
         <v>202</v>
       </c>
       <c r="B92" s="50"/>
       <c r="D92" s="49"/>
     </row>
-    <row r="93" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>106</v>
       </c>
@@ -2470,7 +2480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="36">
         <f>A90+1</f>
         <v>59</v>
@@ -2485,14 +2495,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="22" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="52" t="s">
         <v>208</v>
       </c>
       <c r="B96" s="50"/>
       <c r="D96" s="49"/>
     </row>
-    <row r="97" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="31" t="s">
         <v>106</v>
       </c>
@@ -2506,7 +2516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="36">
         <f>A94+1</f>
         <v>60</v>
@@ -2521,7 +2531,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="36">
         <f>A98+1</f>
         <v>61</v>
@@ -2536,20 +2546,20 @@
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="22" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="52" t="s">
         <v>203</v>
       </c>
       <c r="B102" s="50"/>
       <c r="D102" s="49"/>
     </row>
-    <row r="103" spans="1:4" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
       <c r="B103" s="40"/>
       <c r="C103" s="41"/>
       <c r="D103" s="41"/>
     </row>
-    <row r="104" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="31" t="s">
         <v>106</v>
       </c>
@@ -2563,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="36">
         <v>62</v>
       </c>
@@ -2577,7 +2587,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="36">
         <v>63</v>
       </c>
@@ -2589,7 +2599,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="36">
         <v>64</v>
       </c>
@@ -2603,7 +2613,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="36">
         <f t="shared" ref="A108:A113" si="3">A107+1</f>
         <v>65</v>
@@ -2618,7 +2628,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="36">
         <f t="shared" si="3"/>
         <v>66</v>
@@ -2633,7 +2643,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="36">
         <f t="shared" si="3"/>
         <v>67</v>
@@ -2648,7 +2658,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="36">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -2663,7 +2673,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="36">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -2678,7 +2688,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="36">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -2693,27 +2703,27 @@
         <v>205</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
     </row>
-    <row r="115" spans="1:5" s="34" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" s="34" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="52" t="s">
         <v>206</v>
       </c>
       <c r="C115" s="48"/>
       <c r="D115" s="48"/>
     </row>
-    <row r="116" spans="1:5" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
       <c r="B116" s="40"/>
       <c r="C116" s="41"/>
       <c r="D116" s="41"/>
       <c r="E116" s="30"/>
     </row>
-    <row r="117" spans="1:5" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
         <v>106</v>
       </c>
@@ -2727,7 +2737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="36">
         <v>71</v>
       </c>
@@ -2741,7 +2751,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="36">
         <f>A118+1</f>
         <v>72</v>
@@ -2756,7 +2766,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="36">
         <f t="shared" ref="A120:A123" si="4">A119+1</f>
         <v>73</v>
@@ -2771,7 +2781,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="36">
         <f t="shared" si="4"/>
         <v>74</v>
@@ -2786,7 +2796,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="36">
         <f t="shared" si="4"/>
         <v>75</v>
@@ -2801,7 +2811,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="36">
         <f t="shared" si="4"/>
         <v>76</v>
@@ -2816,26 +2826,26 @@
         <v>150</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
     </row>
-    <row r="125" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="52" t="s">
         <v>207</v>
       </c>
       <c r="C125" s="48"/>
       <c r="D125" s="48"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="40"/>
       <c r="C126" s="41"/>
       <c r="D126" s="41"/>
     </row>
-    <row r="127" spans="1:5" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" s="34" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="31" t="s">
         <v>106</v>
       </c>
@@ -2849,7 +2859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36">
         <v>77</v>
       </c>
@@ -2863,53 +2873,53 @@
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="20"/>
       <c r="D129" s="20"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D130" s="45" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" s="45"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" s="45"/>
       <c r="D132" s="45" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" s="45"/>
       <c r="D133" s="45" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" s="45"/>
       <c r="D134" s="46" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" s="45"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" s="47"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B137" s="45"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="D138" s="53" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D139" s="45" t="s">
         <v>174</v>
       </c>
@@ -2933,30 +2943,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE74"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B48" sqref="B48"/>
+      <selection pane="topRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="35" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="38.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2964,7 +2975,7 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
@@ -2978,7 +2989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -2992,7 +3003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <f t="shared" ref="A7:A24" si="0">A6+1</f>
         <v>2</v>
@@ -3007,7 +3018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3022,7 +3033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3037,7 +3048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3052,7 +3063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3067,7 +3078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3082,7 +3093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3097,7 +3108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3112,7 +3123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3127,7 +3138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3142,7 +3153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3157,7 +3168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3172,7 +3183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3187,7 +3198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3202,7 +3213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3217,7 +3228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3232,7 +3243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3247,7 +3258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3262,13 +3273,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>39</v>
       </c>
@@ -3276,7 +3287,7 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>1</v>
       </c>
@@ -3290,7 +3301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <f t="shared" ref="A28:A34" si="1">A27+1</f>
         <v>2</v>
@@ -3305,7 +3316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -3320,7 +3331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3335,7 +3346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3350,7 +3361,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3365,7 +3376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3380,7 +3391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3395,13 +3406,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>55</v>
       </c>
@@ -3409,7 +3420,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>1</v>
       </c>
@@ -3423,7 +3434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="8" t="s">
         <v>56</v>
@@ -3435,13 +3446,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>58</v>
       </c>
@@ -3449,7 +3460,7 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>1</v>
       </c>
@@ -3462,12 +3473,14 @@
       <c r="D41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>1</v>
       </c>
@@ -3480,8 +3493,11 @@
       <c r="D42" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E42" s="56">
+        <v>1.9621210199203101E+17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <f t="shared" ref="A43:A60" si="2">A42+1</f>
         <v>2</v>
@@ -3495,8 +3511,11 @@
       <c r="D43" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E43" s="56">
+        <v>1.9640403198503101E+17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -3510,8 +3529,11 @@
       <c r="D44" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E44" s="56">
+        <v>1.9711217199702099E+17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -3525,8 +3547,11 @@
       <c r="D45" s="8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E45" s="56">
+        <v>1.9581021198703101E+17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3540,8 +3565,11 @@
       <c r="D46" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E46" s="56">
+        <v>1.9620702198601101E+17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3555,8 +3583,11 @@
       <c r="D47" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E47" s="56">
+        <v>1.9651029199003101E+17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3570,8 +3601,11 @@
       <c r="D48" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E48" s="56">
+        <v>1.9590117198611101E+17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3585,8 +3619,11 @@
       <c r="D49" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E49" s="56">
+        <v>1.9661018198602099E+17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3600,8 +3637,11 @@
       <c r="D50" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E50" s="56">
+        <v>1.9850130201012198E+17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3615,8 +3655,11 @@
       <c r="D51" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E51" s="56">
+        <v>1.9660227199203101E+17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3630,8 +3673,11 @@
       <c r="D52" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E52" s="56">
+        <v>1.96004171988032E+17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3645,8 +3691,11 @@
       <c r="D53" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E53" s="56">
+        <v>1.9591025198711101E+17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3660,8 +3709,11 @@
       <c r="D54" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E54" s="56">
+        <v>1.9650706199012099E+17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3675,8 +3727,11 @@
       <c r="D55" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E55" s="56">
+        <v>1.9620622198302099E+17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -3690,8 +3745,11 @@
       <c r="D56" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E56" s="56">
+        <v>1.9600706198703101E+17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -3705,8 +3763,11 @@
       <c r="D57" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E57" s="56">
+        <v>1.9591015198112099E+17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -3720,8 +3781,11 @@
       <c r="D58" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E58" s="56">
+        <v>1.9761103199912198E+17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -3735,8 +3799,11 @@
       <c r="D59" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E59" s="56">
+        <v>1.9650103199102202E+17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -3750,22 +3817,31 @@
       <c r="D60" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E60" s="56">
+        <v>1.9680908199312099E+17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="9"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E61" s="56">
+        <v>1.9700609199402099E+17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="E62" s="56">
+        <v>1.9700609199402099E+17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>1</v>
       </c>
@@ -3779,7 +3855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>1</v>
       </c>
@@ -3820,7 +3896,7 @@
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <f t="shared" ref="A65:A72" si="3">A64+1</f>
         <v>2</v>
@@ -3862,7 +3938,7 @@
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3904,7 +3980,7 @@
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3946,7 +4022,7 @@
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3988,7 +4064,7 @@
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -4030,7 +4106,7 @@
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -4072,7 +4148,7 @@
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -4114,7 +4190,7 @@
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -4156,7 +4232,7 @@
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>10</v>
       </c>
@@ -4164,7 +4240,7 @@
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>11</v>
       </c>
